--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3320401.370594424</v>
+        <v>3316388.760580432</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8115362.409304542</v>
+        <v>8115362.409304543</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>341.0302325097529</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>378.8306740396116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824781</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,13 +822,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>105.3187722054214</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>171.2000551202487</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>92.72329049755739</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>94.81275980261576</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>127.8885134124236</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>149.0897904115729</v>
+        <v>14.95687341106454</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>31.83188548727826</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>140.9110822997219</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710074</v>
@@ -1378,7 +1378,7 @@
         <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417113</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695516</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X11" t="n">
         <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812365</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
-        <v>21.90286287505374</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>83.29550035394045</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>72.78315874934725</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.9742079424025</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>133.7457933526589</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>92.01576915440816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>42.53134576113405</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V28" t="n">
-        <v>215.8306979277644</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.3062202753126</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>139.1630968205466</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3328,10 +3328,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>66.24118421664697</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>108.9065924712602</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>112.7606860319987</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.445727774094548</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.318139675982</v>
+        <v>1648.004869410821</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4345,7 +4345,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4354,10 +4354,10 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="Y2" t="n">
-        <v>1689.318139675982</v>
+        <v>2034.604709474943</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064616</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>753.0765981364625</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>584.1404152085556</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>584.1404152085556</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>584.1404152085556</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
         <v>477.7578170212613</v>
@@ -4515,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214137</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.50719300825</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.50719300825</v>
+        <v>1446.191493878359</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.517642110232</v>
+        <v>1446.191493878359</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.7250629667022</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796265</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>828.1105664881544</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881544</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4570,13 +4570,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4609,10 +4609,10 @@
         <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>659.4316570185995</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C7" t="n">
-        <v>490.4954740906926</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>490.4954740906926</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>342.5823805082995</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>195.6924330103891</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218343</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X7" t="n">
-        <v>880.2242361621296</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y7" t="n">
-        <v>659.4316570185995</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2198.17958617321</v>
+        <v>1616.654488422266</v>
       </c>
       <c r="C8" t="n">
-        <v>1829.217069232798</v>
+        <v>1247.691971481854</v>
       </c>
       <c r="D8" t="n">
-        <v>1470.951370626048</v>
+        <v>889.4262728751039</v>
       </c>
       <c r="E8" t="n">
-        <v>1085.163118027803</v>
+        <v>503.6380202768597</v>
       </c>
       <c r="F8" t="n">
-        <v>674.1772132381959</v>
+        <v>92.6521154872521</v>
       </c>
       <c r="G8" t="n">
-        <v>259.1047630831924</v>
+        <v>81.62006937265267</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410101</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410101</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X8" t="n">
-        <v>2588.318918149022</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y8" t="n">
-        <v>2198.17958617321</v>
+        <v>2003.254328486388</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>711.2880532342232</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>561.1714138218874</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>413.2583202394943</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>266.3683727415839</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>98.66553611630289</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1503.443780107471</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1248.759291901584</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W10" t="n">
-        <v>959.3421218646239</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="X10" t="n">
-        <v>959.3421218646239</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.3421218646239</v>
+        <v>880.2242361621301</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,19 +5044,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5086,7 +5086,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400744</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="F13" t="n">
-        <v>198.027470314254</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G13" t="n">
-        <v>198.027470314254</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138439</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.502065570314</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,16 +5296,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5317,13 +5317,13 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>808.8888553856866</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>639.9526724577797</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1797.722346028744</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3012.408157764291</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2843.471974836385</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2843.471974836385</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2843.471974836385</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2696.582027338474</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3414.849201738061</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3194.056622594531</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,19 +6077,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>653.7474797708878</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518385</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2117.354959541326</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885523</v>
       </c>
       <c r="V28" t="n">
-        <v>1689.976512844124</v>
+        <v>1573.595244679636</v>
       </c>
       <c r="W28" t="n">
-        <v>1400.559342807163</v>
+        <v>1284.178074642675</v>
       </c>
       <c r="X28" t="n">
-        <v>1172.569791909146</v>
+        <v>1056.188523744658</v>
       </c>
       <c r="Y28" t="n">
-        <v>951.777212765616</v>
+        <v>835.3959446011277</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921476</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138415</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.345997432835</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>923.4098145049279</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>773.2931750925922</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>625.380081510199</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.776592304622</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.787041406604</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.994462263074</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,31 +6949,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852888</v>
@@ -6982,7 +6982,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3160.164713532175</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>2991.228530604269</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>2841.111891191933</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>2693.19879760954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>2546.308850111629</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2546.308850111629</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2404.597018953828</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467153</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3160.164713532175</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,64 +7162,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3007.624207651099</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>2838.688024723192</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>2838.688024723192</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398594</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>4690.833152398594</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>4471.231687421536</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>4182.156460765734</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>3927.471972559847</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>3638.054802522886</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3410.065251624869</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3189.272672481339</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,37 +7426,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1863.561397649904</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1608.876909444017</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1319.459739407056</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1319.459739407056</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.667160263526</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3198.117713678994</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>3029.181530751087</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>2879.064891338752</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>2731.151797756359</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4440.932614305901</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4151.857387650099</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>3897.172899444212</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3607.755729407251</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3379.766178509234</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>3379.766178509234</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.494940240504</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.3918499711701</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>65.3199726642719</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>179.3544845744808</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.6104454096923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>31.77834493960998</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.5688841976866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>138.4949402405107</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>36.30694539606355</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.52575990662474</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>6.257951202384618</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>15.02465210191855</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>37.527370175309</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>173.4237883572454</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>142.9753202488367</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>698883.4330017639</v>
+        <v>698883.433001764</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017639</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017639</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017639</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017639</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>698883.4330017639</v>
+        <v>698883.433001764</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778556</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210056</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210052</v>
@@ -26340,19 +26340,19 @@
         <v>726431.9397210054</v>
       </c>
       <c r="K2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="L2" t="n">
-        <v>726431.939721005</v>
-      </c>
       <c r="M2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210052</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210054</v>
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.846042464933514e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184289</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.8081118428</v>
       </c>
-      <c r="F4" t="n">
-        <v>13606.80811184276</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184274</v>
-      </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184275</v>
@@ -26450,16 +26450,16 @@
         <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184268</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184272</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-790534.9362943243</v>
+        <v>-790534.9362943246</v>
       </c>
       <c r="C6" t="n">
-        <v>538209.8094332683</v>
+        <v>538209.8094332685</v>
       </c>
       <c r="D6" t="n">
-        <v>538209.8094332683</v>
+        <v>538209.8094332682</v>
       </c>
       <c r="E6" t="n">
-        <v>286290.1399779003</v>
+        <v>285942.7607235434</v>
       </c>
       <c r="F6" t="n">
-        <v>611702.6017852554</v>
+        <v>611355.2225308982</v>
       </c>
       <c r="G6" t="n">
-        <v>611702.6017852554</v>
+        <v>611355.2225308984</v>
       </c>
       <c r="H6" t="n">
-        <v>611702.6017852559</v>
+        <v>611355.2225308985</v>
       </c>
       <c r="I6" t="n">
-        <v>611702.6017852554</v>
+        <v>611355.2225308983</v>
       </c>
       <c r="J6" t="n">
-        <v>394171.399387978</v>
+        <v>393824.0201336209</v>
       </c>
       <c r="K6" t="n">
-        <v>611702.6017852554</v>
+        <v>611355.2225308988</v>
       </c>
       <c r="L6" t="n">
-        <v>611702.6017852551</v>
+        <v>611355.2225308986</v>
       </c>
       <c r="M6" t="n">
-        <v>526647.5738497437</v>
+        <v>526300.1945953867</v>
       </c>
       <c r="N6" t="n">
-        <v>611702.6017852552</v>
+        <v>611355.2225308985</v>
       </c>
       <c r="O6" t="n">
-        <v>611702.6017852554</v>
+        <v>611355.2225308988</v>
       </c>
       <c r="P6" t="n">
-        <v>611702.6017852556</v>
+        <v>611355.2225308986</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26816,22 +26816,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>40.90013756250892</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.407264616442035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>40.10227581750988</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>47.38459823184613</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>272.5496012734502</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>38.1372948466046</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>145.5179739757475</v>
+        <v>279.6508909762559</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>112.9231294270425</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,16 +28064,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>145.300755905891</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29046,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29453,55 +29453,55 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-1.434610735810794e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,10 +30036,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-2.126740087173516e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30048,10 +30048,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.212400893528402e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.003997547551989e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31840,10 +31840,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31861,7 +31861,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727256</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>742.9354859824765</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>216.0947523943934</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32569,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32970,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>211.7351844430268</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>301.1823051500296</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>333.9544784328822</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>233.3139244897919</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295352</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991432</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>77.54037261451923</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36217,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629532</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>73.1808046631526</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>159.0482712280113</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>191.3582339884378</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>94.75954470991771</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3316388.760580432</v>
+        <v>3318149.290883217</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8115362.409304543</v>
+        <v>8115362.409304542</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>29.24132645894367</v>
       </c>
       <c r="E2" t="n">
-        <v>341.0302325097529</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>142.3844270995943</v>
       </c>
       <c r="Y4" t="n">
-        <v>171.2000551202487</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>94.81275980261576</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>318.4070179429945</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>217.0914199928484</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>7.5745992224478</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>51.04951869506015</v>
       </c>
       <c r="H8" t="n">
-        <v>14.95687341106454</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>31.83188548727826</v>
+        <v>52.07852635745762</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812365</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.29550035394045</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>220.9731342426603</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>42.53134576113405</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -3003,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.4764219077138</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4188,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1648.004869410821</v>
+        <v>2016.438433460087</v>
       </c>
       <c r="C2" t="n">
-        <v>1279.042352470409</v>
+        <v>1647.475916519675</v>
       </c>
       <c r="D2" t="n">
-        <v>1279.042352470409</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450755</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450755</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="Y2" t="n">
-        <v>2034.604709474943</v>
+        <v>2403.038273524209</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4485,52 +4485,52 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W4" t="n">
-        <v>1446.191493878359</v>
+        <v>1637.877378051531</v>
       </c>
       <c r="X4" t="n">
-        <v>1446.191493878359</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
         <v>1273.262145272047</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="X5" t="n">
-        <v>1976.204921733553</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548192</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269123</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U7" t="n">
-        <v>1708.010285469454</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V7" t="n">
-        <v>1453.325797263567</v>
+        <v>1829.812980520315</v>
       </c>
       <c r="W7" t="n">
-        <v>1163.908627226606</v>
+        <v>1540.395810483355</v>
       </c>
       <c r="X7" t="n">
-        <v>935.9190763285891</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.126497185059</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1616.654488422266</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.691971481854</v>
+        <v>552.807938939213</v>
       </c>
       <c r="D8" t="n">
-        <v>889.4262728751039</v>
+        <v>552.807938939213</v>
       </c>
       <c r="E8" t="n">
-        <v>503.6380202768597</v>
+        <v>167.0196863409688</v>
       </c>
       <c r="F8" t="n">
-        <v>92.6521154872521</v>
+        <v>160.0741855917653</v>
       </c>
       <c r="G8" t="n">
-        <v>81.62006937265267</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723279</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462199</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.254328486388</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>880.2242361621301</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C10" t="n">
-        <v>711.2880532342232</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D10" t="n">
-        <v>561.1714138218874</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E10" t="n">
-        <v>413.2583202394943</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="F10" t="n">
-        <v>266.3683727415839</v>
+        <v>286.8195251357045</v>
       </c>
       <c r="G10" t="n">
-        <v>98.66553611630289</v>
+        <v>119.1166885104234</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368017</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621301</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621301</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621301</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y10" t="n">
-        <v>880.2242361621301</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5032,31 +5032,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400744</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429798</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429798</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429798</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429798</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138439</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.502065570314</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,16 +5296,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>808.8888553856866</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>639.9526724577797</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159263</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5652,64 +5652,64 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
         <v>1202.091371290588</v>
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,16 +5834,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
         <v>402.7245934908939</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5983,58 +5983,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708878</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429807</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429807</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429807</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429807</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578605</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518385</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541326</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885523</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679636</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642675</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744658</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011277</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6463,10 +6463,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6542,28 +6542,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6651,7 +6651,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
         <v>1746.193029533436</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6882,13 +6882,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533436</v>
@@ -6928,19 +6928,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7356,7 +7356,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
         <v>2254.869721166297</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7836,7 +7836,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
         <v>1746.193029533436</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.494940240504</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.3199726642719</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>138.4949402405107</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017639</v>
       </c>
     </row>
     <row r="6">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017639</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778556</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>5.846042464933514e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319414</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184289</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-790534.9362943246</v>
+        <v>-790534.9362943239</v>
       </c>
       <c r="C6" t="n">
-        <v>538209.8094332685</v>
+        <v>538209.8094332677</v>
       </c>
       <c r="D6" t="n">
-        <v>538209.8094332682</v>
+        <v>538209.809433268</v>
       </c>
       <c r="E6" t="n">
-        <v>285942.7607235434</v>
+        <v>286255.4020524645</v>
       </c>
       <c r="F6" t="n">
-        <v>611355.2225308982</v>
+        <v>611667.8638598198</v>
       </c>
       <c r="G6" t="n">
-        <v>611355.2225308984</v>
+        <v>611667.8638598198</v>
       </c>
       <c r="H6" t="n">
-        <v>611355.2225308985</v>
+        <v>611667.8638598201</v>
       </c>
       <c r="I6" t="n">
-        <v>611355.2225308983</v>
+        <v>611667.8638598199</v>
       </c>
       <c r="J6" t="n">
-        <v>393824.0201336209</v>
+        <v>394136.6614625425</v>
       </c>
       <c r="K6" t="n">
-        <v>611355.2225308988</v>
+        <v>611667.8638598197</v>
       </c>
       <c r="L6" t="n">
-        <v>611355.2225308986</v>
+        <v>611667.8638598198</v>
       </c>
       <c r="M6" t="n">
-        <v>526300.1945953867</v>
+        <v>526612.8359243079</v>
       </c>
       <c r="N6" t="n">
-        <v>611355.2225308985</v>
+        <v>611667.8638598198</v>
       </c>
       <c r="O6" t="n">
-        <v>611355.2225308988</v>
+        <v>611667.8638598199</v>
       </c>
       <c r="P6" t="n">
-        <v>611355.2225308986</v>
+        <v>611667.8638598201</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>325.4417151617393</v>
       </c>
       <c r="E2" t="n">
-        <v>40.90013756250892</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>83.3252282894428</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.38459823184613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>274.9183408758533</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>67.83092071305907</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>69.12041821276446</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>244.5630441013802</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>359.8722069583933</v>
       </c>
       <c r="H8" t="n">
-        <v>279.6508909762559</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>112.9231294270425</v>
+        <v>92.67648855686316</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29046,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29453,55 +29453,55 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.434610735810794e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>742.9354859824765</v>
+        <v>300.768778117042</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32967,10 +32967,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33262,13 +33262,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>611.5937738991432</v>
+        <v>169.4270660337087</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36615,10 +36615,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.0464832629532</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
